--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I739"/>
+  <dimension ref="A1:I740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26249,6 +26249,41 @@
         <v>650000</v>
       </c>
     </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F740" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G740" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I740" t="n">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I740"/>
+  <dimension ref="A1:I741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26284,6 +26284,41 @@
         <v>44000</v>
       </c>
     </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E741" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F741" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G741" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I741" t="n">
+        <v>551400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I741"/>
+  <dimension ref="A1:I742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26319,6 +26319,41 @@
         <v>551400</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E742" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F742" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G742" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I742" t="n">
+        <v>747000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I742"/>
+  <dimension ref="A1:I743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26354,6 +26354,41 @@
         <v>747000</v>
       </c>
     </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E743" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F743" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I743" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I743"/>
+  <dimension ref="A1:I744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26389,6 +26389,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E744" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I744" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I744"/>
+  <dimension ref="A1:I745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26424,6 +26424,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E745" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F745" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G745" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I745" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I745"/>
+  <dimension ref="A1:I746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26459,6 +26459,41 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E746" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F746" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G746" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I746" t="n">
+        <v>71400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I746"/>
+  <dimension ref="A1:I747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26494,6 +26494,41 @@
         <v>71400</v>
       </c>
     </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E747" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F747" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G747" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I747" t="n">
+        <v>164000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I747"/>
+  <dimension ref="A1:I748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26529,6 +26529,41 @@
         <v>164000</v>
       </c>
     </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E748" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F748" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G748" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I748" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I748"/>
+  <dimension ref="A1:I749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26564,6 +26564,41 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G749" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I749" t="n">
+        <v>1048000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I749"/>
+  <dimension ref="A1:I750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26599,6 +26599,41 @@
         <v>1048000</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E750" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G750" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I750" t="n">
+        <v>13900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I750"/>
+  <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26634,6 +26634,41 @@
         <v>13900</v>
       </c>
     </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F751" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G751" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I751" t="n">
+        <v>1786300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I751"/>
+  <dimension ref="A1:I753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26669,6 +26669,76 @@
         <v>1786300</v>
       </c>
     </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F752" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G752" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I752" t="n">
+        <v>851200</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F753" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I753" t="n">
+        <v>7261700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I753"/>
+  <dimension ref="A1:I755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26739,6 +26739,76 @@
         <v>7261700</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F754" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G754" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I754" t="n">
+        <v>1228100</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F755" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G755" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I755" t="n">
+        <v>1005000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I755"/>
+  <dimension ref="A1:I756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26809,6 +26809,41 @@
         <v>1005000</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F756" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G756" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I756" t="n">
+        <v>136200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I756"/>
+  <dimension ref="A1:I757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26844,6 +26844,41 @@
         <v>136200</v>
       </c>
     </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F757" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G757" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I757" t="n">
+        <v>686800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I757"/>
+  <dimension ref="A1:I758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26879,6 +26879,41 @@
         <v>686800</v>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E758" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F758" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G758" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I758" t="n">
+        <v>177800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I758"/>
+  <dimension ref="A1:I759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26914,6 +26914,41 @@
         <v>177800</v>
       </c>
     </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F759" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G759" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I759" t="n">
+        <v>6936600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I759"/>
+  <dimension ref="A1:I761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26949,6 +26949,76 @@
         <v>6936600</v>
       </c>
     </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F760" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G760" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I760" t="n">
+        <v>935000</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F761" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G761" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I761" t="n">
+        <v>1009400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I761"/>
+  <dimension ref="A1:I762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27019,6 +27019,41 @@
         <v>1009400</v>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F762" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G762" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I762" t="n">
+        <v>1978800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I762"/>
+  <dimension ref="A1:I763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27054,6 +27054,41 @@
         <v>1978800</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F763" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G763" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3585200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I763"/>
+  <dimension ref="A1:I772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24536,11 +24536,11 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -24554,28 +24554,28 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F691" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G691" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H691" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I691" t="n">
-        <v>736000</v>
+        <v>2017000</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -24589,28 +24589,28 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F692" t="n">
         <v>0.075</v>
       </c>
       <c r="G692" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H692" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I692" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -24624,28 +24624,28 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F693" t="n">
         <v>0.08</v>
       </c>
       <c r="G693" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H693" t="n">
         <v>0.075</v>
       </c>
       <c r="I693" t="n">
-        <v>645000</v>
+        <v>14013100</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -24662,25 +24662,25 @@
         <v>0.075</v>
       </c>
       <c r="F694" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G694" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H694" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I694" t="n">
-        <v>422000</v>
+        <v>2553900</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24700,22 +24700,22 @@
         <v>0.08</v>
       </c>
       <c r="G695" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H695" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I695" t="n">
-        <v>12495000</v>
+        <v>9401100</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24729,10 +24729,10 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F696" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G696" t="n">
         <v>0.075</v>
@@ -24741,16 +24741,16 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I696" t="n">
-        <v>26780400</v>
+        <v>7416100</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24764,28 +24764,28 @@
         </is>
       </c>
       <c r="E697" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F697" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="F697" t="n">
-        <v>0.1</v>
-      </c>
       <c r="G697" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H697" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I697" t="n">
-        <v>27455400</v>
+        <v>1412400</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24799,28 +24799,28 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F698" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G698" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H698" t="n">
-        <v>0.09</v>
+        <v>0.075</v>
       </c>
       <c r="I698" t="n">
-        <v>4800500</v>
+        <v>1465000</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24834,28 +24834,28 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>0.09</v>
+        <v>0.075</v>
       </c>
       <c r="F699" t="n">
-        <v>0.09</v>
+        <v>0.075</v>
       </c>
       <c r="G699" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H699" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I699" t="n">
-        <v>2166400</v>
+        <v>383000</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24869,28 +24869,28 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F700" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G700" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H700" t="n">
         <v>0.08</v>
       </c>
       <c r="I700" t="n">
-        <v>2955600</v>
+        <v>736000</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24904,28 +24904,28 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F701" t="n">
-        <v>0.09</v>
+        <v>0.075</v>
       </c>
       <c r="G701" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H701" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I701" t="n">
-        <v>993600</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -24939,28 +24939,28 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F702" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G702" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H702" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I702" t="n">
-        <v>2733000</v>
+        <v>645000</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24974,28 +24974,28 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F703" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G703" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H703" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I703" t="n">
-        <v>3555500</v>
+        <v>422000</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -25009,28 +25009,28 @@
         </is>
       </c>
       <c r="E704" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F704" t="n">
         <v>0.08</v>
       </c>
-      <c r="F704" t="n">
-        <v>0.08500000000000001</v>
-      </c>
       <c r="G704" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H704" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I704" t="n">
-        <v>882800</v>
+        <v>12495000</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -25044,28 +25044,28 @@
         </is>
       </c>
       <c r="E705" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G705" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H705" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="F705" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="G705" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H705" t="n">
-        <v>0.08</v>
-      </c>
       <c r="I705" t="n">
-        <v>1545000</v>
+        <v>26780400</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -25079,28 +25079,28 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F706" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G706" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="G706" t="n">
-        <v>0.08</v>
-      </c>
       <c r="H706" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I706" t="n">
-        <v>1106300</v>
+        <v>27455400</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -25114,28 +25114,28 @@
         </is>
       </c>
       <c r="E707" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G707" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="F707" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="G707" t="n">
-        <v>0.08</v>
-      </c>
       <c r="H707" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I707" t="n">
-        <v>1518000</v>
+        <v>4800500</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -25149,28 +25149,28 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F708" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G708" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H708" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I708" t="n">
-        <v>854000</v>
+        <v>2166400</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -25184,7 +25184,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F709" t="n">
         <v>0.08500000000000001</v>
@@ -25193,19 +25193,19 @@
         <v>0.08</v>
       </c>
       <c r="H709" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I709" t="n">
-        <v>3638300</v>
+        <v>2955600</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -25228,19 +25228,19 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="H710" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I710" t="n">
-        <v>6330600</v>
+        <v>993600</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -25254,28 +25254,28 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F711" t="n">
-        <v>0.095</v>
+        <v>0.09</v>
       </c>
       <c r="G711" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H711" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="H711" t="n">
-        <v>0.095</v>
-      </c>
       <c r="I711" t="n">
-        <v>11718200</v>
+        <v>2733000</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -25289,28 +25289,28 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F712" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G712" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H712" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I712" t="n">
-        <v>5318300</v>
+        <v>3555500</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -25324,28 +25324,28 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F713" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G713" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H713" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I713" t="n">
-        <v>1756000</v>
+        <v>882800</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -25359,28 +25359,28 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F714" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G714" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H714" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I714" t="n">
-        <v>4125300</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -25394,28 +25394,28 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="F715" t="n">
-        <v>0.1</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G715" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="H715" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="I715" t="n">
-        <v>12446300</v>
+        <v>1106300</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -25429,28 +25429,28 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>0.1</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F716" t="n">
-        <v>0.1</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G716" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="H716" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="I716" t="n">
-        <v>3856200</v>
+        <v>1518000</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -25464,28 +25464,28 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="F717" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="G717" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H717" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I717" t="n">
-        <v>5605800</v>
+        <v>854000</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -25499,28 +25499,28 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F718" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G718" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H718" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I718" t="n">
-        <v>1351400</v>
+        <v>3638300</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -25534,28 +25534,28 @@
         </is>
       </c>
       <c r="E719" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F719" t="n">
         <v>0.09</v>
       </c>
-      <c r="F719" t="n">
-        <v>0.095</v>
-      </c>
       <c r="G719" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H719" t="n">
         <v>0.09</v>
       </c>
-      <c r="H719" t="n">
-        <v>0.095</v>
-      </c>
       <c r="I719" t="n">
-        <v>564800</v>
+        <v>6330600</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -25569,28 +25569,28 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="F720" t="n">
         <v>0.095</v>
       </c>
       <c r="G720" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H720" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="I720" t="n">
-        <v>1574300</v>
+        <v>11718200</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -25604,28 +25604,28 @@
         </is>
       </c>
       <c r="E721" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F721" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G721" t="n">
         <v>0.09</v>
-      </c>
-      <c r="F721" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G721" t="n">
-        <v>0.08500000000000001</v>
       </c>
       <c r="H721" t="n">
         <v>0.09</v>
       </c>
       <c r="I721" t="n">
-        <v>5432700</v>
+        <v>5318300</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -25642,25 +25642,25 @@
         <v>0.09</v>
       </c>
       <c r="F722" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G722" t="n">
         <v>0.09</v>
-      </c>
-      <c r="G722" t="n">
-        <v>0.08500000000000001</v>
       </c>
       <c r="H722" t="n">
         <v>0.09</v>
       </c>
       <c r="I722" t="n">
-        <v>1104000</v>
+        <v>1756000</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -25674,28 +25674,28 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F723" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G723" t="n">
         <v>0.09</v>
-      </c>
-      <c r="G723" t="n">
-        <v>0.08500000000000001</v>
       </c>
       <c r="H723" t="n">
         <v>0.09</v>
       </c>
       <c r="I723" t="n">
-        <v>648300</v>
+        <v>4125300</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -25709,28 +25709,28 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="F724" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G724" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="H724" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="I724" t="n">
-        <v>288000</v>
+        <v>12446300</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -25744,28 +25744,28 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F725" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G725" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="H725" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="I725" t="n">
-        <v>2776800</v>
+        <v>3856200</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25779,28 +25779,28 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="F726" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G726" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H726" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I726" t="n">
-        <v>2113000</v>
+        <v>5605800</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25814,28 +25814,28 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F727" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G727" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H727" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="I727" t="n">
-        <v>865000</v>
+        <v>1351400</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -25849,28 +25849,28 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F728" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G728" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H728" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="I728" t="n">
-        <v>1067900</v>
+        <v>564800</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -25884,28 +25884,28 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F729" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G729" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H729" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I729" t="n">
-        <v>75000</v>
+        <v>1574300</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25919,28 +25919,28 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F730" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G730" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H730" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I730" t="n">
-        <v>2854400</v>
+        <v>5432700</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -25954,28 +25954,28 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F731" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G731" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H731" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I731" t="n">
-        <v>2578100</v>
+        <v>1104000</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25989,28 +25989,28 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F732" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G732" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="G732" t="n">
-        <v>0.075</v>
-      </c>
       <c r="H732" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="I732" t="n">
-        <v>996600</v>
+        <v>648300</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -26024,28 +26024,28 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F733" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G733" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H733" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I733" t="n">
-        <v>3308300</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -26059,28 +26059,28 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F734" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G734" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H734" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I734" t="n">
-        <v>738800</v>
+        <v>2776800</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -26094,28 +26094,28 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F735" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G735" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H735" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I735" t="n">
-        <v>422000</v>
+        <v>2113000</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -26129,28 +26129,28 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F736" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G736" t="n">
         <v>0.08</v>
-      </c>
-      <c r="G736" t="n">
-        <v>0.075</v>
       </c>
       <c r="H736" t="n">
         <v>0.08</v>
       </c>
       <c r="I736" t="n">
-        <v>281000</v>
+        <v>865000</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -26164,7 +26164,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F737" t="n">
         <v>0.08500000000000001</v>
@@ -26176,16 +26176,16 @@
         <v>0.08</v>
       </c>
       <c r="I737" t="n">
-        <v>2054600</v>
+        <v>1067900</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -26211,16 +26211,16 @@
         <v>0.08</v>
       </c>
       <c r="I738" t="n">
-        <v>1596000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -26243,19 +26243,19 @@
         <v>0.075</v>
       </c>
       <c r="H739" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I739" t="n">
-        <v>650000</v>
+        <v>2854400</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -26269,28 +26269,28 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F740" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G740" t="n">
         <v>0.075</v>
       </c>
       <c r="H740" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I740" t="n">
-        <v>44000</v>
+        <v>2578100</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -26307,25 +26307,25 @@
         <v>0.08</v>
       </c>
       <c r="F741" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G741" t="n">
         <v>0.075</v>
       </c>
       <c r="H741" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I741" t="n">
-        <v>551400</v>
+        <v>996600</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -26342,25 +26342,25 @@
         <v>0.075</v>
       </c>
       <c r="F742" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G742" t="n">
         <v>0.075</v>
       </c>
       <c r="H742" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I742" t="n">
-        <v>747000</v>
+        <v>3308300</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -26386,16 +26386,16 @@
         <v>0.075</v>
       </c>
       <c r="I743" t="n">
-        <v>10000</v>
+        <v>738800</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -26409,10 +26409,10 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F744" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G744" t="n">
         <v>0.075</v>
@@ -26421,16 +26421,16 @@
         <v>0.075</v>
       </c>
       <c r="I744" t="n">
-        <v>40000</v>
+        <v>422000</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -26447,25 +26447,25 @@
         <v>0.075</v>
       </c>
       <c r="F745" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G745" t="n">
         <v>0.075</v>
       </c>
       <c r="H745" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I745" t="n">
-        <v>300000</v>
+        <v>281000</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -26479,28 +26479,28 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F746" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G746" t="n">
         <v>0.08</v>
       </c>
-      <c r="G746" t="n">
-        <v>0.075</v>
-      </c>
       <c r="H746" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I746" t="n">
-        <v>71400</v>
+        <v>2054600</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -26514,28 +26514,28 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F747" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G747" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H747" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I747" t="n">
-        <v>164000</v>
+        <v>1596000</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -26549,10 +26549,10 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F748" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G748" t="n">
         <v>0.075</v>
@@ -26561,16 +26561,16 @@
         <v>0.075</v>
       </c>
       <c r="I748" t="n">
-        <v>140000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -26590,22 +26590,22 @@
         <v>0.075</v>
       </c>
       <c r="G749" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H749" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I749" t="n">
-        <v>1048000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -26619,28 +26619,28 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F750" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G750" t="n">
         <v>0.075</v>
       </c>
       <c r="H750" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I750" t="n">
-        <v>13900</v>
+        <v>551400</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -26660,22 +26660,22 @@
         <v>0.075</v>
       </c>
       <c r="G751" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H751" t="n">
         <v>0.075</v>
       </c>
       <c r="I751" t="n">
-        <v>1786300</v>
+        <v>747000</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -26695,22 +26695,22 @@
         <v>0.075</v>
       </c>
       <c r="G752" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H752" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I752" t="n">
-        <v>851200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -26724,28 +26724,28 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F753" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G753" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H753" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I753" t="n">
-        <v>7261700</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -26765,22 +26765,22 @@
         <v>0.075</v>
       </c>
       <c r="G754" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H754" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I754" t="n">
-        <v>1228100</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -26797,25 +26797,25 @@
         <v>0.075</v>
       </c>
       <c r="F755" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G755" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H755" t="n">
         <v>0.075</v>
       </c>
       <c r="I755" t="n">
-        <v>1005000</v>
+        <v>71400</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -26835,22 +26835,22 @@
         <v>0.075</v>
       </c>
       <c r="G756" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H756" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I756" t="n">
-        <v>136200</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26864,28 +26864,28 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F757" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G757" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H757" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I757" t="n">
-        <v>686800</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -26911,16 +26911,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I758" t="n">
-        <v>177800</v>
+        <v>1048000</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -26934,28 +26934,28 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F759" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G759" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="H759" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="I759" t="n">
-        <v>6936600</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26969,28 +26969,28 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="F760" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G760" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H760" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I760" t="n">
-        <v>935000</v>
+        <v>1786300</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -27004,28 +27004,28 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F761" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G761" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H761" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I761" t="n">
-        <v>1009400</v>
+        <v>851200</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -27039,53 +27039,368 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F762" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G762" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H762" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I762" t="n">
-        <v>1978800</v>
+        <v>7261700</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F763" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G763" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I763" t="n">
+        <v>1228100</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F764" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G764" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I764" t="n">
+        <v>1005000</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F765" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G765" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I765" t="n">
+        <v>136200</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F766" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G766" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I766" t="n">
+        <v>686800</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F767" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G767" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H767" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I767" t="n">
+        <v>177800</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E768" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F768" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G768" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I768" t="n">
+        <v>6936600</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E769" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F769" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G769" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I769" t="n">
+        <v>935000</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E770" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F770" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G770" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I770" t="n">
+        <v>1009400</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E771" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F771" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G771" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I771" t="n">
+        <v>1978800</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B763" t="inlineStr">
+      <c r="B772" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C763" t="inlineStr">
-        <is>
-          <t>0189</t>
-        </is>
-      </c>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>MATANG</t>
-        </is>
-      </c>
-      <c r="E763" t="n">
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E772" t="n">
         <v>0.065</v>
       </c>
-      <c r="F763" t="n">
+      <c r="F772" t="n">
         <v>0.065</v>
       </c>
-      <c r="G763" t="n">
+      <c r="G772" t="n">
         <v>0.06</v>
       </c>
-      <c r="H763" t="n">
+      <c r="H772" t="n">
         <v>0.065</v>
       </c>
-      <c r="I763" t="n">
+      <c r="I772" t="n">
         <v>3585200</v>
       </c>
     </row>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I772"/>
+  <dimension ref="A1:I773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27404,6 +27404,41 @@
         <v>3585200</v>
       </c>
     </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E773" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F773" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G773" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H773" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I773" t="n">
+        <v>3748100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I773"/>
+  <dimension ref="A1:I774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27439,6 +27439,41 @@
         <v>3748100</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E774" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F774" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G774" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H774" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I774" t="n">
+        <v>946000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I774"/>
+  <dimension ref="A1:I775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27474,6 +27474,41 @@
         <v>946000</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G775" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I775" t="n">
+        <v>841000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I775"/>
+  <dimension ref="A1:I776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27509,6 +27509,41 @@
         <v>841000</v>
       </c>
     </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E776" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F776" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G776" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H776" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I776" t="n">
+        <v>3843100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I776"/>
+  <dimension ref="A1:I777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27544,6 +27544,41 @@
         <v>3843100</v>
       </c>
     </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E777" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F777" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G777" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H777" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I777" t="n">
+        <v>1207100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I777"/>
+  <dimension ref="A1:I778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27579,6 +27579,41 @@
         <v>1207100</v>
       </c>
     </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E778" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F778" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G778" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I778" t="n">
+        <v>3864000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I778"/>
+  <dimension ref="A1:I779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27614,6 +27614,41 @@
         <v>3864000</v>
       </c>
     </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E779" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F779" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G779" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I779" t="n">
+        <v>2877200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I779"/>
+  <dimension ref="A1:I780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27649,6 +27649,41 @@
         <v>2877200</v>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E780" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G780" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I780" t="n">
+        <v>496700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I780"/>
+  <dimension ref="A1:I781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27684,6 +27684,41 @@
         <v>496700</v>
       </c>
     </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E781" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F781" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G781" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I781" t="n">
+        <v>990600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I781"/>
+  <dimension ref="A1:I782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27719,6 +27719,41 @@
         <v>990600</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E782" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F782" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G782" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I782" t="n">
+        <v>254000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I782"/>
+  <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27754,6 +27754,41 @@
         <v>254000</v>
       </c>
     </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E783" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F783" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G783" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I783" t="n">
+        <v>672000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I783"/>
+  <dimension ref="A1:I784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27789,6 +27789,41 @@
         <v>672000</v>
       </c>
     </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E784" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F784" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G784" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I784" t="n">
+        <v>732500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I784"/>
+  <dimension ref="A1:I785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27824,6 +27824,41 @@
         <v>732500</v>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E785" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F785" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G785" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I785" t="n">
+        <v>747000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I785"/>
+  <dimension ref="A1:I786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27859,6 +27859,41 @@
         <v>747000</v>
       </c>
     </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E786" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F786" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G786" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H786" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I786" t="n">
+        <v>727300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I786"/>
+  <dimension ref="A1:I787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27894,6 +27894,41 @@
         <v>727300</v>
       </c>
     </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E787" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F787" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G787" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H787" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I787" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I787"/>
+  <dimension ref="A1:I788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27929,6 +27929,41 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E788" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F788" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G788" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H788" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I788" t="n">
+        <v>2977200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I788"/>
+  <dimension ref="A1:I789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27964,6 +27964,41 @@
         <v>2977200</v>
       </c>
     </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E789" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F789" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G789" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H789" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I789" t="n">
+        <v>2280200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I789"/>
+  <dimension ref="A1:I790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27999,6 +27999,41 @@
         <v>2280200</v>
       </c>
     </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E790" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F790" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G790" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H790" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I790" t="n">
+        <v>466500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I790"/>
+  <dimension ref="A1:I791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28034,6 +28034,41 @@
         <v>466500</v>
       </c>
     </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E791" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F791" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G791" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H791" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I791" t="n">
+        <v>156300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I791"/>
+  <dimension ref="A1:I792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28069,6 +28069,41 @@
         <v>156300</v>
       </c>
     </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E792" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F792" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G792" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H792" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I792" t="n">
+        <v>130600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I792"/>
+  <dimension ref="A1:I793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28104,6 +28104,41 @@
         <v>130600</v>
       </c>
     </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E793" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G793" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H793" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I793" t="n">
+        <v>174000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I793"/>
+  <dimension ref="A1:I794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28139,6 +28139,41 @@
         <v>174000</v>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E794" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G794" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H794" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I794" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I794"/>
+  <dimension ref="A1:I795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28174,6 +28174,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E795" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F795" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G795" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H795" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I795" t="n">
+        <v>4324000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I795"/>
+  <dimension ref="A1:I796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28209,6 +28209,41 @@
         <v>4324000</v>
       </c>
     </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E796" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G796" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H796" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I796" t="n">
+        <v>1448800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I796"/>
+  <dimension ref="A1:I797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28244,6 +28244,41 @@
         <v>1448800</v>
       </c>
     </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E797" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G797" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H797" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I797" t="n">
+        <v>398600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I797"/>
+  <dimension ref="A1:I799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28279,6 +28279,76 @@
         <v>398600</v>
       </c>
     </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E798" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G798" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H798" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I798" t="n">
+        <v>220100</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E799" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G799" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H799" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I799" t="n">
+        <v>722000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I799"/>
+  <dimension ref="A1:I800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28349,6 +28349,41 @@
         <v>722000</v>
       </c>
     </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E800" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F800" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G800" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H800" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I800" t="n">
+        <v>82300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I800"/>
+  <dimension ref="A1:I803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28384,6 +28384,111 @@
         <v>82300</v>
       </c>
     </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E801" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F801" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G801" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H801" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I801" t="n">
+        <v>519800</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E802" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F802" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G802" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H802" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I802" t="n">
+        <v>818000</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E803" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G803" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H803" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I803" t="n">
+        <v>535000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I803"/>
+  <dimension ref="A1:I804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28489,6 +28489,41 @@
         <v>535000</v>
       </c>
     </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E804" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F804" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G804" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H804" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I804" t="n">
+        <v>571000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I804"/>
+  <dimension ref="A1:I805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28524,6 +28524,41 @@
         <v>571000</v>
       </c>
     </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E805" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G805" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H805" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I805" t="n">
+        <v>550000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0189.xlsx
+++ b/data/0189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I805"/>
+  <dimension ref="A1:I808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28559,6 +28559,111 @@
         <v>550000</v>
       </c>
     </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E806" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F806" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G806" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H806" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I806" t="n">
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E807" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G807" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H807" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I807" t="n">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>MATANG</t>
+        </is>
+      </c>
+      <c r="E808" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G808" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H808" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I808" t="n">
+        <v>645000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
